--- a/metadata/plate_metadata/20251017_part2_well_metadata.xlsx
+++ b/metadata/plate_metadata/20251017_part2_well_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530ECA9D-CAC3-F741-9795-5CA9B25B6772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DF5D6A-6D37-2546-9872-1ECB73549A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20480" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="series_number_map" sheetId="7" r:id="rId7"/>
     <sheet name="start_age_morph" sheetId="8" r:id="rId8"/>
     <sheet name="embryos_per_well" sheetId="9" r:id="rId9"/>
-    <sheet name="temperature_c" sheetId="10" r:id="rId10"/>
+    <sheet name="temperature" sheetId="10" r:id="rId10"/>
     <sheet name="tricane" sheetId="12" r:id="rId11"/>
     <sheet name="notes" sheetId="13" r:id="rId12"/>
   </sheets>
@@ -355,15 +355,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,11 +1505,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1672,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1316C8B-0927-DD44-AB74-6FEC17E4DB88}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
@@ -3383,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -3436,40 +3436,40 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3477,40 +3477,40 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3518,40 +3518,40 @@
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3559,40 +3559,40 @@
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3600,40 +3600,40 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3641,40 +3641,40 @@
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3682,79 +3682,79 @@
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
